--- a/Documents/プロジェクト定義書_お知らせ登録.xlsx
+++ b/Documents/プロジェクト定義書_お知らせ登録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f949345ffeaeb87/デスクトップ/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devel\git\ShainKintaiKanriBss\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{94ADDB97-94DB-4CDB-8C06-3336568176DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D219D24B-130F-4A00-8656-ED3A7830210F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4B8CF-938C-4192-A596-550B9E1718F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-680" yWindow="210" windowWidth="9570" windowHeight="10670" tabRatio="850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="お知らせ登録画面" sheetId="11" r:id="rId1"/>
@@ -22,12 +22,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="130">
   <si>
     <t>テーブル名 (論理名)</t>
   </si>
@@ -649,6 +662,7 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1296,6 +1310,33 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1343,33 +1384,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1747,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C962AFE4-662A-4F49-94A6-FF2EE3C29248}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2382,7 +2396,9 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="16"/>
   <cols>
@@ -2405,77 +2421,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -2502,10 +2518,10 @@
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2539,10 +2555,10 @@
       <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="57" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -2554,100 +2570,100 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="36">
         <v>255</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="36">
         <v>50</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="58" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="13" t="s">
@@ -2666,16 +2682,14 @@
       <c r="F12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="15"/>
@@ -2701,14 +2715,12 @@
       <c r="F13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50" t="s">
+      <c r="I13" s="58"/>
+      <c r="J13" s="59" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -2720,7 +2732,7 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="43" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2740,8 +2752,8 @@
       <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
       <c r="K14" s="15" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2781,8 @@
       <c r="H15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="15" t="s">
         <v>3</v>
       </c>
@@ -2798,8 +2810,8 @@
       <c r="H16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2809,7 +2821,7 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="43" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2829,8 +2841,8 @@
       <c r="H17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="15" t="s">
         <v>3</v>
       </c>
@@ -2858,8 +2870,8 @@
       <c r="H18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="15" t="s">
         <v>3</v>
       </c>
@@ -2867,7 +2879,7 @@
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2887,8 +2899,8 @@
       <c r="H19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="15" t="s">
         <v>3</v>
       </c>
@@ -2918,10 +2930,10 @@
       <c r="H20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="15"/>
@@ -2985,77 +2997,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -3082,10 +3094,10 @@
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
@@ -3119,10 +3131,10 @@
       <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="57" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -3154,8 +3166,8 @@
       <c r="H8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50" t="s">
+      <c r="I8" s="58"/>
+      <c r="J8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -3187,8 +3199,8 @@
       <c r="H9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3230,8 @@
       <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="15" t="s">
         <v>3</v>
       </c>
@@ -3247,15 +3259,15 @@
       <c r="H11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="32">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -3276,8 +3288,8 @@
       <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
       <c r="K12" s="15" t="s">
         <v>3</v>
       </c>
@@ -3305,15 +3317,15 @@
       <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="32">
       <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
@@ -3334,8 +3346,8 @@
       <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
       <c r="K14" s="15" t="s">
         <v>3</v>
       </c>
@@ -3365,10 +3377,10 @@
       <c r="H15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="15"/>
@@ -3379,6 +3391,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
@@ -3387,12 +3405,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.59027777777777801" right="0.59027777777777801" top="0.78680555555555598" bottom="0.78680555555555598" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3431,77 +3443,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -3528,10 +3540,10 @@
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
@@ -3565,10 +3577,10 @@
       <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="57" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -3602,8 +3614,8 @@
       <c r="H8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
       <c r="K8" s="15" t="s">
         <v>3</v>
       </c>
@@ -3633,15 +3645,15 @@
       <c r="H9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="32">
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
@@ -3662,8 +3674,8 @@
       <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="15" t="s">
         <v>3</v>
       </c>
@@ -3691,15 +3703,15 @@
       <c r="H11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="32">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -3720,8 +3732,8 @@
       <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
       <c r="K12" s="15" t="s">
         <v>3</v>
       </c>
@@ -3751,10 +3763,10 @@
       <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="15"/>
@@ -3765,18 +3777,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.59027777777777801" right="0.59027777777777801" top="0.78680555555555598" bottom="0.78680555555555598" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/Documents/プロジェクト定義書_お知らせ登録.xlsx
+++ b/Documents/プロジェクト定義書_お知らせ登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devel\git\ShainKintaiKanriBss\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4B8CF-938C-4192-A596-550B9E1718F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FCF828-4C9A-4D92-943B-38ABE6A70E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="notification_permission基本情報" sheetId="20" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">notifications基本情報!$A$1:$M$17</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="127">
   <si>
     <t>テーブル名 (論理名)</t>
   </si>
@@ -239,12 +240,6 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
     <t>creation_date</t>
   </si>
   <si>
@@ -255,10 +250,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>通常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bytea</t>
@@ -298,10 +289,6 @@
     <rPh sb="5" eb="7">
       <t>ｼｭｳﾘｮｳ</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>posted_by</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,13 +322,6 @@
   </si>
   <si>
     <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>値：通常/重要</t>
-    <rPh sb="0" eb="1">
-      <t>ﾁ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>notifications</t>
@@ -599,6 +579,21 @@
   <si>
     <t>テキストエリア</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>creater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:重要
+1:通常</t>
+    <rPh sb="2" eb="4">
+      <t>ｼﾞｭｳﾖｳ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ﾂｳｼﾞｮｳ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -674,7 +669,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,12 +682,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1334,9 +1323,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1384,6 +1370,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1818,7 +1807,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>34</v>
@@ -1842,7 +1831,7 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A4" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33" t="s">
@@ -1870,11 +1859,11 @@
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A5" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1885,20 +1874,20 @@
         <v>34</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A6" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>34</v>
@@ -1922,11 +1911,11 @@
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A7" s="24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>34</v>
@@ -1950,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A8" s="24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="33" t="s">
@@ -1978,11 +1967,11 @@
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A9" s="24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" s="14">
         <v>8</v>
@@ -1997,20 +1986,20 @@
         <v>34</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A10" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D10" s="14">
         <v>8</v>
@@ -2025,10 +2014,10 @@
         <v>34</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J10" s="25"/>
     </row>
@@ -2038,7 +2027,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>34</v>
@@ -2066,7 +2055,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>34</v>
@@ -2094,7 +2083,7 @@
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>34</v>
@@ -2118,7 +2107,7 @@
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A14" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="33" t="s">
@@ -2146,11 +2135,11 @@
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A15" s="24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>34</v>
@@ -2165,16 +2154,16 @@
         <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A16" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="33" t="s">
@@ -2202,11 +2191,11 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A17" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D17" s="14">
         <v>255</v>
@@ -2221,16 +2210,16 @@
         <v>34</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A18" s="24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="33" t="s">
@@ -2258,11 +2247,11 @@
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A19" s="24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -2273,16 +2262,16 @@
         <v>34</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A20" s="24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>34</v>
@@ -2312,13 +2301,13 @@
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A21" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>34</v>
@@ -2342,13 +2331,13 @@
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="16">
       <c r="A22" s="24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>34</v>
@@ -2394,10 +2383,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="16"/>
@@ -2421,77 +2410,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -2518,10 +2507,10 @@
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="55"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2550,15 +2539,15 @@
         <v>17</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -2571,7 +2560,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>44</v>
@@ -2585,7 +2574,7 @@
       <c r="E8" s="36"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="38"/>
@@ -2596,19 +2585,19 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="38"/>
@@ -2617,9 +2606,9 @@
       <c r="L9" s="40"/>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="32">
       <c r="A10" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>46</v>
@@ -2628,7 +2617,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="36">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -2637,11 +2626,11 @@
       <c r="I10" s="38"/>
       <c r="J10" s="39"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="42" t="s">
-        <v>56</v>
+      <c r="L10" s="42">
+        <v>1</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1">
@@ -2652,7 +2641,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
@@ -2667,7 +2656,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>48</v>
@@ -2686,10 +2675,10 @@
       <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="44" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="15"/>
@@ -2700,7 +2689,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>49</v>
@@ -2719,8 +2708,8 @@
       <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59" t="s">
+      <c r="I13" s="57"/>
+      <c r="J13" s="58" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -2732,14 +2721,14 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="43" t="s">
-        <v>67</v>
+      <c r="A14" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
@@ -2752,8 +2741,8 @@
       <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="15" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2750,8 @@
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="13" t="s">
-        <v>25</v>
+      <c r="A15" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>50</v>
@@ -2781,28 +2770,30 @@
       <c r="H15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="13" t="s">
-        <v>24</v>
+      <c r="A16" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="F16" s="15" t="s">
         <v>19</v>
       </c>
@@ -2810,22 +2801,24 @@
       <c r="H16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="17"/>
+      <c r="I16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="43" t="s">
-        <v>68</v>
+      <c r="A17" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>20</v>
@@ -2841,110 +2834,18 @@
       <c r="H17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="I20:J20"/>
+  <mergeCells count="12">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2957,8 +2858,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59027777777777801" right="0.59027777777777801" top="0.78680555555555598" bottom="0.78680555555555598" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2997,77 +2896,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -3094,10 +2993,10 @@
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="55"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
@@ -3126,15 +3025,15 @@
         <v>17</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -3147,13 +3046,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
@@ -3166,8 +3065,8 @@
       <c r="H8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59" t="s">
+      <c r="I8" s="57"/>
+      <c r="J8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -3180,13 +3079,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
@@ -3199,8 +3098,8 @@
       <c r="H9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3209,13 +3108,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
@@ -3230,8 +3129,8 @@
       <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="15" t="s">
         <v>3</v>
       </c>
@@ -3240,10 +3139,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>20</v>
@@ -3259,8 +3158,8 @@
       <c r="H11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="15" t="s">
         <v>3</v>
       </c>
@@ -3272,7 +3171,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>20</v>
@@ -3288,25 +3187,25 @@
       <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
       <c r="K12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -3317,8 +3216,8 @@
       <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
       <c r="K13" s="15" t="s">
         <v>3</v>
       </c>
@@ -3346,25 +3245,25 @@
       <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
@@ -3377,10 +3276,10 @@
       <c r="H15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="15"/>
@@ -3391,12 +3290,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
@@ -3405,6 +3298,12 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.59027777777777801" right="0.59027777777777801" top="0.78680555555555598" bottom="0.78680555555555598" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3443,77 +3342,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -3540,10 +3439,10 @@
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="55"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
@@ -3556,20 +3455,20 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" thickTop="1">
       <c r="A7" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>18</v>
@@ -3577,10 +3476,10 @@
       <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -3593,29 +3492,29 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
       <c r="K8" s="15" t="s">
         <v>3</v>
       </c>
@@ -3624,10 +3523,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
@@ -3637,16 +3536,16 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3658,7 +3557,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>20</v>
@@ -3674,25 +3573,25 @@
       <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -3703,8 +3602,8 @@
       <c r="H11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="15" t="s">
         <v>3</v>
       </c>
@@ -3732,25 +3631,25 @@
       <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
       <c r="K12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
@@ -3763,10 +3662,10 @@
       <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="44" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="15"/>
@@ -3777,18 +3676,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.59027777777777801" right="0.59027777777777801" top="0.78680555555555598" bottom="0.78680555555555598" header="0.51180555555555596" footer="0.51180555555555596"/>
